--- a/기획서/게임 플레이/기획서_플레이어 스테이터스 1.5.0ver.xlsx
+++ b/기획서/게임 플레이/기획서_플레이어 스테이터스 1.5.0ver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Project\GraduateProject\Documents\기획서\게임 플레이\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CBB874-77D0-45C2-8466-03342CE89F80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FC86A-AB13-4C81-A66D-987775135CBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="2280" xr2:uid="{617B9327-9362-45A2-B167-99EBF56F3224}"/>
   </bookViews>
@@ -809,6 +809,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,6 +827,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,54 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1192,74 +1192,74 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="9" customWidth="1"/>
     <col min="8" max="10" width="9" customWidth="1"/>
     <col min="12" max="13" width="9" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="18" max="18" width="22.69921875" customWidth="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.75" customWidth="1"/>
+    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
-      <c r="Q1" s="46" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="Q1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="V1" s="46" t="s">
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
+      <c r="V1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-    </row>
-    <row r="2" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="38" t="s">
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
+    </row>
+    <row r="2" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="39" t="s">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="22" t="s">
         <v>31</v>
@@ -1273,13 +1273,13 @@
       <c r="V2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="51"/>
-    </row>
-    <row r="3" spans="1:25" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+    </row>
+    <row r="3" spans="1:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -1340,13 +1340,13 @@
       <c r="V3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="52">
+      <c r="W3" s="47">
         <v>110</v>
       </c>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="54"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="49"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>0</v>
       </c>
@@ -1366,20 +1366,20 @@
       <c r="G4" s="36">
         <v>60</v>
       </c>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="38" t="s">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="39"/>
-      <c r="T4" s="40"/>
-      <c r="V4" s="38" t="s">
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="V4" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="43"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1432,7 +1432,7 @@
         <f>G4+5</f>
         <v>65</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="58"/>
       <c r="R5" s="27" t="s">
         <v>38</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1512,7 +1512,7 @@
         <f>(O5+$Y$9)</f>
         <v>66</v>
       </c>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="58"/>
       <c r="R6" s="27" t="s">
         <v>39</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1592,12 +1592,12 @@
         <f t="shared" ref="O7:O25" si="12">(O6+$Y$9)</f>
         <v>67</v>
       </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="58"/>
+      <c r="R7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="39"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
       <c r="V7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1668,7 +1668,7 @@
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="Q8" s="42"/>
+      <c r="Q8" s="58"/>
       <c r="R8" s="27" t="s">
         <v>28</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1746,7 +1746,7 @@
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="27" t="s">
         <v>29</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1826,7 +1826,7 @@
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="Q10" s="42"/>
+      <c r="Q10" s="58"/>
       <c r="R10" s="27" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1896,14 +1896,14 @@
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="38" t="s">
+      <c r="Q11" s="58"/>
+      <c r="R11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="40"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S11" s="42"/>
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1960,7 +1960,7 @@
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="58"/>
       <c r="R12" s="19" t="s">
         <v>47</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2028,16 +2028,16 @@
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="Q13" s="43"/>
+      <c r="Q13" s="59"/>
       <c r="R13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="44" t="s">
+      <c r="S13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="45"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="T13" s="56"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2094,16 +2094,16 @@
         <f t="shared" si="12"/>
         <v>74</v>
       </c>
-      <c r="Q14" s="41" t="s">
+      <c r="Q14" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="S14" s="42"/>
+      <c r="T14" s="43"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -2160,7 +2160,7 @@
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="Q15" s="42"/>
+      <c r="Q15" s="58"/>
       <c r="R15" s="19" t="s">
         <v>47</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -2230,7 +2230,7 @@
         <f t="shared" si="12"/>
         <v>76</v>
       </c>
-      <c r="Q16" s="42"/>
+      <c r="Q16" s="58"/>
       <c r="R16" s="19" t="s">
         <v>48</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -2298,14 +2298,14 @@
         <f t="shared" si="12"/>
         <v>77</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="38" t="s">
+      <c r="Q17" s="58"/>
+      <c r="R17" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="39"/>
-      <c r="T17" s="40"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S17" s="42"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -2362,7 +2362,7 @@
         <f t="shared" si="12"/>
         <v>78</v>
       </c>
-      <c r="Q18" s="42"/>
+      <c r="Q18" s="58"/>
       <c r="R18" s="19" t="s">
         <v>44</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -2430,7 +2430,7 @@
         <f t="shared" si="12"/>
         <v>79</v>
       </c>
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="58"/>
       <c r="R19" s="19" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -2498,7 +2498,7 @@
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="Q20" s="42"/>
+      <c r="Q20" s="58"/>
       <c r="R20" s="19" t="s">
         <v>46</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -2568,14 +2568,14 @@
         <f t="shared" si="12"/>
         <v>81</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="38" t="s">
+      <c r="Q21" s="58"/>
+      <c r="R21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="39"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S21" s="42"/>
+      <c r="T21" s="43"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -2632,7 +2632,7 @@
         <f t="shared" si="12"/>
         <v>82</v>
       </c>
-      <c r="Q22" s="42"/>
+      <c r="Q22" s="58"/>
       <c r="R22" s="27" t="s">
         <v>28</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -2700,7 +2700,7 @@
         <f t="shared" si="12"/>
         <v>83</v>
       </c>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="58"/>
       <c r="R23" s="27" t="s">
         <v>29</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -2768,7 +2768,7 @@
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="Q24" s="42"/>
+      <c r="Q24" s="58"/>
       <c r="R24" s="27" t="s">
         <v>30</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -2838,14 +2838,14 @@
         <f t="shared" si="12"/>
         <v>85</v>
       </c>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="38" t="s">
+      <c r="Q25" s="58"/>
+      <c r="R25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="39"/>
-      <c r="T25" s="40"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="S25" s="42"/>
+      <c r="T25" s="43"/>
+    </row>
+    <row r="26" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>18</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="33"/>
-      <c r="Q26" s="42"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="27" t="s">
         <v>24</v>
       </c>
@@ -2880,8 +2880,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q27" s="42"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q27" s="58"/>
       <c r="R27" s="27" t="s">
         <v>25</v>
       </c>
@@ -2892,8 +2892,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q28" s="43"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q28" s="59"/>
       <c r="R28" s="27" t="s">
         <v>26</v>
       </c>
@@ -2904,18 +2904,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q29" s="41" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q29" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="R29" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="S29" s="39"/>
-      <c r="T29" s="40"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q30" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="43"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q30" s="58"/>
       <c r="R30" s="27" t="s">
         <v>47</v>
       </c>
@@ -2926,8 +2926,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q31" s="42"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q31" s="58"/>
       <c r="R31" s="27" t="s">
         <v>48</v>
       </c>
@@ -2938,16 +2938,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q32" s="42"/>
-      <c r="R32" s="38" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q32" s="58"/>
+      <c r="R32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="39"/>
-      <c r="T32" s="40"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q33" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="43"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q33" s="58"/>
       <c r="R33" s="19" t="s">
         <v>44</v>
       </c>
@@ -2958,8 +2958,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q34" s="42"/>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q34" s="58"/>
       <c r="R34" s="19" t="s">
         <v>45</v>
       </c>
@@ -2970,8 +2970,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q35" s="42"/>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q35" s="58"/>
       <c r="R35" s="19" t="s">
         <v>46</v>
       </c>
@@ -2982,16 +2982,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q36" s="42"/>
-      <c r="R36" s="38" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q36" s="58"/>
+      <c r="R36" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q37" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="43"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q37" s="58"/>
       <c r="R37" s="27" t="s">
         <v>28</v>
       </c>
@@ -3002,9 +3002,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="Q38" s="42"/>
+      <c r="Q38" s="58"/>
       <c r="R38" s="27" t="s">
         <v>29</v>
       </c>
@@ -3015,8 +3015,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q39" s="42"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q39" s="58"/>
       <c r="R39" s="27" t="s">
         <v>30</v>
       </c>
@@ -3027,16 +3027,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q40" s="42"/>
-      <c r="R40" s="38" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q40" s="58"/>
+      <c r="R40" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="39"/>
-      <c r="T40" s="40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q41" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q41" s="58"/>
       <c r="R41" s="27" t="s">
         <v>24</v>
       </c>
@@ -3047,8 +3047,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q42" s="42"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q42" s="58"/>
       <c r="R42" s="27" t="s">
         <v>25</v>
       </c>
@@ -3059,8 +3059,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="Q43" s="43"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q43" s="59"/>
       <c r="R43" s="25" t="s">
         <v>26</v>
       </c>
@@ -3073,6 +3073,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="Q14:Q28"/>
+    <mergeCell ref="Q29:Q43"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="R25:T25"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q3:Q13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R7:T7"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="W2:Y2"/>
@@ -3084,20 +3098,6 @@
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q3:Q13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="Q14:Q28"/>
-    <mergeCell ref="Q29:Q43"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="R25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/게임 플레이/기획서_플레이어 스테이터스 1.5.0ver.xlsx
+++ b/기획서/게임 플레이/기획서_플레이어 스테이터스 1.5.0ver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Project\GraduateProject\Documents\기획서\게임 플레이\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FC86A-AB13-4C81-A66D-987775135CBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027ED2B9-2830-4DBF-AED6-B85E8FC75500}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="2280" xr2:uid="{617B9327-9362-45A2-B167-99EBF56F3224}"/>
   </bookViews>
@@ -809,6 +809,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,15 +842,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,21 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A66BA7D-1295-4EF6-B655-D306C1609D16}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1208,58 +1208,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="Q1" s="38" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="48"/>
+      <c r="Q1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40"/>
-      <c r="V1" s="38" t="s">
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="V1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="40"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="48"/>
     </row>
     <row r="2" spans="1:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="41" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="51" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="42" t="s">
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="22" t="s">
         <v>31</v>
@@ -1273,11 +1273,11 @@
       <c r="V2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="51"/>
     </row>
     <row r="3" spans="1:25" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1325,7 +1325,7 @@
       <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="R3" s="27" t="s">
@@ -1340,11 +1340,11 @@
       <c r="V3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="47">
+      <c r="W3" s="52">
         <v>110</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="49"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
@@ -1366,18 +1366,18 @@
       <c r="G4" s="36">
         <v>60</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="41" t="s">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="V4" s="41" t="s">
+      <c r="S4" s="39"/>
+      <c r="T4" s="40"/>
+      <c r="V4" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="43"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1432,7 +1432,7 @@
         <f>G4+5</f>
         <v>65</v>
       </c>
-      <c r="Q5" s="58"/>
+      <c r="Q5" s="42"/>
       <c r="R5" s="27" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="F6" s="34">
         <f>(F5+$W$8)</f>
-        <v>132.4</v>
+        <v>125.6</v>
       </c>
       <c r="G6" s="17">
         <f>(G5+$W$9)</f>
@@ -1506,13 +1506,13 @@
       </c>
       <c r="N6" s="34">
         <f>(N5+$Y$8)</f>
-        <v>129.80000000000001</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="O6" s="35">
         <f>(O5+$Y$9)</f>
         <v>66</v>
       </c>
-      <c r="Q6" s="58"/>
+      <c r="Q6" s="42"/>
       <c r="R6" s="27" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" ref="F7:F25" si="3">(F6+$W$8)</f>
-        <v>170.8</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" ref="G7:G25" si="4">(G6+$W$9)</f>
@@ -1586,18 +1586,18 @@
       </c>
       <c r="N7" s="34">
         <f t="shared" ref="N7:N25" si="11">(N6+$Y$8)</f>
-        <v>158.60000000000002</v>
+        <v>156.60000000000002</v>
       </c>
       <c r="O7" s="35">
         <f t="shared" ref="O7:O25" si="12">(O6+$Y$9)</f>
         <v>67</v>
       </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="41" t="s">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
       <c r="V7" s="13" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="3"/>
-        <v>209.20000000000002</v>
+        <v>188.79999999999998</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="4"/>
@@ -1662,13 +1662,13 @@
       </c>
       <c r="N8" s="34">
         <f t="shared" si="11"/>
-        <v>187.40000000000003</v>
+        <v>184.40000000000003</v>
       </c>
       <c r="O8" s="35">
         <f t="shared" si="12"/>
         <v>68</v>
       </c>
-      <c r="Q8" s="58"/>
+      <c r="Q8" s="42"/>
       <c r="R8" s="27" t="s">
         <v>28</v>
       </c>
@@ -1680,13 +1680,13 @@
         <v>23</v>
       </c>
       <c r="W8" s="2">
-        <v>38.4</v>
+        <v>31.6</v>
       </c>
       <c r="X8" s="2">
         <v>23.4</v>
       </c>
       <c r="Y8" s="3">
-        <v>28.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="3"/>
-        <v>247.60000000000002</v>
+        <v>220.39999999999998</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="4"/>
@@ -1740,13 +1740,13 @@
       </c>
       <c r="N9" s="34">
         <f t="shared" si="11"/>
-        <v>216.20000000000005</v>
+        <v>212.20000000000005</v>
       </c>
       <c r="O9" s="35">
         <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="Q9" s="58"/>
+      <c r="Q9" s="42"/>
       <c r="R9" s="27" t="s">
         <v>29</v>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="3"/>
-        <v>286</v>
+        <v>251.99999999999997</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="4"/>
@@ -1820,13 +1820,13 @@
       </c>
       <c r="N10" s="34">
         <f t="shared" si="11"/>
-        <v>245.00000000000006</v>
+        <v>240.00000000000006</v>
       </c>
       <c r="O10" s="35">
         <f t="shared" si="12"/>
         <v>70</v>
       </c>
-      <c r="Q10" s="58"/>
+      <c r="Q10" s="42"/>
       <c r="R10" s="27" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="3"/>
-        <v>324.39999999999998</v>
+        <v>283.59999999999997</v>
       </c>
       <c r="G11" s="17">
         <f t="shared" si="4"/>
@@ -1890,18 +1890,18 @@
       </c>
       <c r="N11" s="34">
         <f t="shared" si="11"/>
-        <v>273.80000000000007</v>
+        <v>267.80000000000007</v>
       </c>
       <c r="O11" s="35">
         <f t="shared" si="12"/>
         <v>71</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="41" t="s">
+      <c r="Q11" s="42"/>
+      <c r="R11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="42"/>
-      <c r="T11" s="43"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="40"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="3"/>
-        <v>362.79999999999995</v>
+        <v>315.2</v>
       </c>
       <c r="G12" s="17">
         <f t="shared" si="4"/>
@@ -1954,13 +1954,13 @@
       </c>
       <c r="N12" s="34">
         <f t="shared" si="11"/>
-        <v>302.60000000000008</v>
+        <v>295.60000000000008</v>
       </c>
       <c r="O12" s="35">
         <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="Q12" s="58"/>
+      <c r="Q12" s="42"/>
       <c r="R12" s="19" t="s">
         <v>47</v>
       </c>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="3"/>
-        <v>401.19999999999993</v>
+        <v>346.8</v>
       </c>
       <c r="G13" s="17">
         <f t="shared" si="4"/>
@@ -2022,20 +2022,20 @@
       </c>
       <c r="N13" s="34">
         <f t="shared" si="11"/>
-        <v>331.40000000000009</v>
+        <v>323.40000000000009</v>
       </c>
       <c r="O13" s="35">
         <f t="shared" si="12"/>
         <v>73</v>
       </c>
-      <c r="Q13" s="59"/>
+      <c r="Q13" s="43"/>
       <c r="R13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="55" t="s">
+      <c r="S13" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="56"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="3"/>
-        <v>439.59999999999991</v>
+        <v>378.40000000000003</v>
       </c>
       <c r="G14" s="17">
         <f t="shared" si="4"/>
@@ -2088,20 +2088,20 @@
       </c>
       <c r="N14" s="34">
         <f t="shared" si="11"/>
-        <v>360.2000000000001</v>
+        <v>351.2000000000001</v>
       </c>
       <c r="O14" s="35">
         <f t="shared" si="12"/>
         <v>74</v>
       </c>
-      <c r="Q14" s="57" t="s">
+      <c r="Q14" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="42"/>
-      <c r="T14" s="43"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="40"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="3"/>
-        <v>477.99999999999989</v>
+        <v>410.00000000000006</v>
       </c>
       <c r="G15" s="17">
         <f t="shared" si="4"/>
@@ -2154,13 +2154,13 @@
       </c>
       <c r="N15" s="34">
         <f t="shared" si="11"/>
-        <v>389.00000000000011</v>
+        <v>379.00000000000011</v>
       </c>
       <c r="O15" s="35">
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="Q15" s="58"/>
+      <c r="Q15" s="42"/>
       <c r="R15" s="19" t="s">
         <v>47</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="3"/>
-        <v>516.39999999999986</v>
+        <v>441.60000000000008</v>
       </c>
       <c r="G16" s="17">
         <f t="shared" si="4"/>
@@ -2224,13 +2224,13 @@
       </c>
       <c r="N16" s="34">
         <f t="shared" si="11"/>
-        <v>417.80000000000013</v>
+        <v>406.80000000000013</v>
       </c>
       <c r="O16" s="35">
         <f t="shared" si="12"/>
         <v>76</v>
       </c>
-      <c r="Q16" s="58"/>
+      <c r="Q16" s="42"/>
       <c r="R16" s="19" t="s">
         <v>48</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="3"/>
-        <v>554.79999999999984</v>
+        <v>473.2000000000001</v>
       </c>
       <c r="G17" s="17">
         <f t="shared" si="4"/>
@@ -2292,18 +2292,18 @@
       </c>
       <c r="N17" s="34">
         <f t="shared" si="11"/>
-        <v>446.60000000000014</v>
+        <v>434.60000000000014</v>
       </c>
       <c r="O17" s="35">
         <f t="shared" si="12"/>
         <v>77</v>
       </c>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="41" t="s">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="3"/>
-        <v>593.19999999999982</v>
+        <v>504.80000000000013</v>
       </c>
       <c r="G18" s="17">
         <f t="shared" si="4"/>
@@ -2356,13 +2356,13 @@
       </c>
       <c r="N18" s="34">
         <f t="shared" si="11"/>
-        <v>475.40000000000015</v>
+        <v>462.40000000000015</v>
       </c>
       <c r="O18" s="35">
         <f t="shared" si="12"/>
         <v>78</v>
       </c>
-      <c r="Q18" s="58"/>
+      <c r="Q18" s="42"/>
       <c r="R18" s="19" t="s">
         <v>44</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="3"/>
-        <v>631.5999999999998</v>
+        <v>536.40000000000009</v>
       </c>
       <c r="G19" s="17">
         <f t="shared" si="4"/>
@@ -2424,13 +2424,13 @@
       </c>
       <c r="N19" s="34">
         <f t="shared" si="11"/>
-        <v>504.20000000000016</v>
+        <v>490.20000000000016</v>
       </c>
       <c r="O19" s="35">
         <f t="shared" si="12"/>
         <v>79</v>
       </c>
-      <c r="Q19" s="58"/>
+      <c r="Q19" s="42"/>
       <c r="R19" s="19" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>669.99999999999977</v>
+        <v>568.00000000000011</v>
       </c>
       <c r="G20" s="17">
         <f t="shared" si="4"/>
@@ -2492,13 +2492,13 @@
       </c>
       <c r="N20" s="34">
         <f t="shared" si="11"/>
-        <v>533.00000000000011</v>
+        <v>518.00000000000011</v>
       </c>
       <c r="O20" s="35">
         <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="Q20" s="58"/>
+      <c r="Q20" s="42"/>
       <c r="R20" s="19" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>708.39999999999975</v>
+        <v>599.60000000000014</v>
       </c>
       <c r="G21" s="17">
         <f t="shared" si="4"/>
@@ -2562,18 +2562,18 @@
       </c>
       <c r="N21" s="34">
         <f t="shared" si="11"/>
-        <v>561.80000000000007</v>
+        <v>545.80000000000007</v>
       </c>
       <c r="O21" s="35">
         <f t="shared" si="12"/>
         <v>81</v>
       </c>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="41" t="s">
+      <c r="Q21" s="42"/>
+      <c r="R21" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="43"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="40"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>746.79999999999973</v>
+        <v>631.20000000000016</v>
       </c>
       <c r="G22" s="17">
         <f t="shared" si="4"/>
@@ -2626,13 +2626,13 @@
       </c>
       <c r="N22" s="34">
         <f t="shared" si="11"/>
-        <v>590.6</v>
+        <v>573.6</v>
       </c>
       <c r="O22" s="35">
         <f t="shared" si="12"/>
         <v>82</v>
       </c>
-      <c r="Q22" s="58"/>
+      <c r="Q22" s="42"/>
       <c r="R22" s="27" t="s">
         <v>28</v>
       </c>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>785.1999999999997</v>
+        <v>662.80000000000018</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="4"/>
@@ -2694,13 +2694,13 @@
       </c>
       <c r="N23" s="34">
         <f t="shared" si="11"/>
-        <v>619.4</v>
+        <v>601.4</v>
       </c>
       <c r="O23" s="35">
         <f t="shared" si="12"/>
         <v>83</v>
       </c>
-      <c r="Q23" s="58"/>
+      <c r="Q23" s="42"/>
       <c r="R23" s="27" t="s">
         <v>29</v>
       </c>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>823.59999999999968</v>
+        <v>694.4000000000002</v>
       </c>
       <c r="G24" s="17">
         <f t="shared" si="4"/>
@@ -2762,13 +2762,13 @@
       </c>
       <c r="N24" s="34">
         <f t="shared" si="11"/>
-        <v>648.19999999999993</v>
+        <v>629.19999999999993</v>
       </c>
       <c r="O24" s="35">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="Q24" s="58"/>
+      <c r="Q24" s="42"/>
       <c r="R24" s="27" t="s">
         <v>30</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="F25" s="7">
         <f t="shared" si="3"/>
-        <v>861.99999999999966</v>
+        <v>726.00000000000023</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="4"/>
@@ -2832,18 +2832,18 @@
       </c>
       <c r="N25" s="7">
         <f t="shared" si="11"/>
-        <v>676.99999999999989</v>
+        <v>656.99999999999989</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="12"/>
         <v>85</v>
       </c>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="41" t="s">
+      <c r="Q25" s="42"/>
+      <c r="R25" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="43"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="40"/>
     </row>
     <row r="26" spans="1:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
@@ -2869,7 +2869,7 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="33"/>
-      <c r="Q26" s="58"/>
+      <c r="Q26" s="42"/>
       <c r="R26" s="27" t="s">
         <v>24</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q27" s="58"/>
+      <c r="Q27" s="42"/>
       <c r="R27" s="27" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q28" s="59"/>
+      <c r="Q28" s="43"/>
       <c r="R28" s="27" t="s">
         <v>26</v>
       </c>
@@ -2905,17 +2905,17 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q29" s="57" t="s">
+      <c r="Q29" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R29" s="41" t="s">
+      <c r="R29" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="S29" s="42"/>
-      <c r="T29" s="43"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="40"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q30" s="58"/>
+      <c r="Q30" s="42"/>
       <c r="R30" s="27" t="s">
         <v>47</v>
       </c>
@@ -2927,7 +2927,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q31" s="58"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="27" t="s">
         <v>48</v>
       </c>
@@ -2939,15 +2939,15 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q32" s="58"/>
-      <c r="R32" s="41" t="s">
+      <c r="Q32" s="42"/>
+      <c r="R32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="42"/>
-      <c r="T32" s="43"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="40"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q33" s="58"/>
+      <c r="Q33" s="42"/>
       <c r="R33" s="19" t="s">
         <v>44</v>
       </c>
@@ -2959,7 +2959,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q34" s="58"/>
+      <c r="Q34" s="42"/>
       <c r="R34" s="19" t="s">
         <v>45</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q35" s="58"/>
+      <c r="Q35" s="42"/>
       <c r="R35" s="19" t="s">
         <v>46</v>
       </c>
@@ -2983,15 +2983,15 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q36" s="58"/>
-      <c r="R36" s="41" t="s">
+      <c r="Q36" s="42"/>
+      <c r="R36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="S36" s="42"/>
-      <c r="T36" s="43"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q37" s="58"/>
+      <c r="Q37" s="42"/>
       <c r="R37" s="27" t="s">
         <v>28</v>
       </c>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
-      <c r="Q38" s="58"/>
+      <c r="Q38" s="42"/>
       <c r="R38" s="27" t="s">
         <v>29</v>
       </c>
@@ -3016,7 +3016,7 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q39" s="58"/>
+      <c r="Q39" s="42"/>
       <c r="R39" s="27" t="s">
         <v>30</v>
       </c>
@@ -3028,15 +3028,15 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q40" s="58"/>
-      <c r="R40" s="41" t="s">
+      <c r="Q40" s="42"/>
+      <c r="R40" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="S40" s="42"/>
-      <c r="T40" s="43"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="40"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q41" s="58"/>
+      <c r="Q41" s="42"/>
       <c r="R41" s="27" t="s">
         <v>24</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q42" s="58"/>
+      <c r="Q42" s="42"/>
       <c r="R42" s="27" t="s">
         <v>25</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="Q43" s="59"/>
+      <c r="Q43" s="43"/>
       <c r="R43" s="25" t="s">
         <v>26</v>
       </c>
@@ -3073,20 +3073,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="Q14:Q28"/>
-    <mergeCell ref="Q29:Q43"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="R40:T40"/>
-    <mergeCell ref="R25:T25"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q3:Q13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="R7:T7"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="W2:Y2"/>
@@ -3098,6 +3084,20 @@
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q3:Q13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="Q14:Q28"/>
+    <mergeCell ref="Q29:Q43"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="R40:T40"/>
+    <mergeCell ref="R25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
